--- a/past_events.xlsx
+++ b/past_events.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,126 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Презентация</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-02-12 18:40:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Презентация нового продукта</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Презентация</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-02-12 18:40:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Презентация нового продукта</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Презентация</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-02-12 18:40:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Презентация нового продукта</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Презентация</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-02-12 18:40:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Презентация нового продукта</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Презентация</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-02-12 18:40:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Презентация нового продукта</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Презентация</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-02-12 18:40:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Презентация нового продукта</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/past_events.xlsx
+++ b/past_events.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,6 +603,26 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Презентация</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-02-12 18:50:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Презентация нового продукта</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/past_events.xlsx
+++ b/past_events.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -454,170 +454,10 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-02-12 18:18:00</t>
+          <t>2024-02-12 18:20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>Презентация нового продукта</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Презентация</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-02-12 18:20:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Презентация нового продукта</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Презентация</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-02-12 18:40:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Презентация нового продукта</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Презентация</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-02-12 18:40:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Презентация нового продукта</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Презентация</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-02-12 18:40:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Презентация нового продукта</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Презентация</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024-02-12 18:40:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Презентация нового продукта</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Презентация</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2024-02-12 18:40:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Презентация нового продукта</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>11</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Презентация</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-02-12 18:40:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Презентация нового продукта</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>12</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Презентация</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2024-02-12 18:50:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>Презентация нового продукта</t>
         </is>
